--- a/biology/Histoire de la zoologie et de la botanique/Sunder_Lal_Hora/Sunder_Lal_Hora.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sunder_Lal_Hora/Sunder_Lal_Hora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sunder Lal Hora est un ichtyologiste indien, né en 1896 et mort le 8 décembre 1955.
 Il est célèbre pour son hypothèse Saptura, une théorie biogéographique expliquant que la série de hauteurs du centre de l’Inde, la région de Saptpura, a joué le rôle de point ayant permis à la faune malaise de coloniser la péninsule indienne et les Ghats occidentaux.
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hora, S. L. 1944. On the Malayan affinities of the freshwater fish fauna of Peninsular India, and its bearing on the probable age of the Garo-Rajmahal Gap., Proc. Nat. Inst. Sci. India, 10 (2) : 423-439.
 Hora, S. L.  1949. Satpura Hypothesis of the Distribution of the Malayan Fauna and Flora to Peninsular India, Proc. Nat. Inst. Sci. India, 15 (8) : 309-314.</t>
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article de langue anglaise de Wikipédia (version du 1er mai 2006).
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’ichtyologie                    </t>
